--- a/Programação em Microinformática/EXERCICIO 3 - EXCEL - CAIXA_01.xlsx
+++ b/Programação em Microinformática/EXERCICIO 3 - EXCEL - CAIXA_01.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\Programação em Microinformática\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duanl\Documents\FATEC\Programação em Microinformática\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41463619-B2C9-48E4-8EA0-5658FD7037D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C4C1D7-5DDE-4186-9FC0-353289453427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan1" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -385,7 +396,7 @@
     <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00;[Red]&quot;R$&quot;\-#,##0.00"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,6 +479,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -910,7 +929,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1021,6 +1040,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1048,13 +1075,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1339,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J306"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A40" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55:J55"/>
+    <sheetView showZeros="0" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,17 +1377,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3134,23 +3154,23 @@
       </c>
       <c r="C50" s="23"/>
       <c r="D50" s="42"/>
-      <c r="E50" s="82">
+      <c r="E50" s="73">
         <f t="shared" ref="E50:I50" si="6">SUM(E5:E48)</f>
         <v>6758</v>
       </c>
-      <c r="F50" s="77">
+      <c r="F50" s="68">
         <f t="shared" si="6"/>
         <v>8850</v>
       </c>
-      <c r="G50" s="78">
+      <c r="G50" s="69">
         <f t="shared" si="6"/>
         <v>4384.82</v>
       </c>
-      <c r="H50" s="79">
+      <c r="H50" s="70">
         <f t="shared" si="6"/>
         <v>1856.8</v>
       </c>
-      <c r="I50" s="80">
+      <c r="I50" s="71">
         <f t="shared" si="6"/>
         <v>1500</v>
       </c>
@@ -3198,7 +3218,7 @@
         <v>61</v>
       </c>
       <c r="C53" s="53"/>
-      <c r="D53" s="83">
+      <c r="D53" s="74">
         <f>E50</f>
         <v>6758</v>
       </c>
@@ -3214,7 +3234,7 @@
         <v>62</v>
       </c>
       <c r="C54" s="53"/>
-      <c r="D54" s="81">
+      <c r="D54" s="72">
         <f>SUM(F50:I50)</f>
         <v>16591.62</v>
       </c>
@@ -3236,10 +3256,10 @@
       </c>
       <c r="E55" s="52"/>
       <c r="F55" s="45"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="71"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="78"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="79"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56"/>
@@ -3606,7 +3626,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3615,7 +3635,7 @@
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
@@ -3638,11 +3658,11 @@
       <c r="E1" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="74"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -3654,14 +3674,20 @@
       <c r="C2" s="24">
         <v>1.6</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="37">
+        <f>(B2/(C2*C2))</f>
+        <v>27.343749999999996</v>
+      </c>
+      <c r="E2" s="24" t="str">
+        <f>IF(D2&lt;=16,$I$2,IF(D2&lt;=20,$I$3,IF(D2&lt;=25,$I$4,IF(D2&lt;=29,$I$5,IF(D2&lt;=34,$I$6,IF(D2&lt;=39,$I$7,IF(D2&gt;=39,$I$8,"Nenhum!")))))))</f>
+        <v>ACIMA DO PESO</v>
+      </c>
       <c r="F2" s="29" t="s">
         <v>78</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="31"/>
-      <c r="I2" t="s">
+      <c r="I2" s="24" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3675,13 +3701,19 @@
       <c r="C3" s="24">
         <v>1.55</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="24"/>
+      <c r="D3" s="37">
+        <f t="shared" ref="D3:D9" si="0">(B3/(C3*C3))</f>
+        <v>36.628511966701346</v>
+      </c>
+      <c r="E3" s="24" t="str">
+        <f t="shared" ref="E3:E9" si="1">IF(D3&lt;=16,$I$2,IF(D3&lt;=20,$I$3,IF(D3&lt;=25,$I$4,IF(D3&lt;=29,$I$5,IF(D3&lt;=34,$I$6,IF(D3&lt;=39,$I$7,IF(D3&gt;=39,$I$8,"Nenhum!")))))))</f>
+        <v>OBES GRAU2</v>
+      </c>
       <c r="F3" s="32" t="s">
         <v>79</v>
       </c>
       <c r="H3" s="33"/>
-      <c r="I3" t="s">
+      <c r="I3" s="24" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3695,13 +3727,19 @@
       <c r="C4" s="24">
         <v>1.5</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="24"/>
+      <c r="D4" s="37">
+        <f t="shared" si="0"/>
+        <v>24.888888888888889</v>
+      </c>
+      <c r="E4" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">NORMAL </v>
+      </c>
       <c r="F4" s="32" t="s">
         <v>80</v>
       </c>
       <c r="H4" s="33"/>
-      <c r="I4" t="s">
+      <c r="I4" s="24" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3715,13 +3753,19 @@
       <c r="C5" s="24">
         <v>1.8</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="24"/>
+      <c r="D5" s="37">
+        <f t="shared" si="0"/>
+        <v>30.864197530864196</v>
+      </c>
+      <c r="E5" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>OBES GRAU 1</v>
+      </c>
       <c r="F5" s="32" t="s">
         <v>81</v>
       </c>
       <c r="H5" s="33"/>
-      <c r="I5" t="s">
+      <c r="I5" s="24" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3735,13 +3779,19 @@
       <c r="C6" s="24">
         <v>1.75</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="37">
+        <f t="shared" si="0"/>
+        <v>27.755102040816325</v>
+      </c>
+      <c r="E6" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>ACIMA DO PESO</v>
+      </c>
       <c r="F6" s="32" t="s">
         <v>82</v>
       </c>
       <c r="H6" s="33"/>
-      <c r="I6" t="s">
+      <c r="I6" s="24" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3755,13 +3805,19 @@
       <c r="C7" s="24">
         <v>1.68</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="24"/>
+      <c r="D7" s="37">
+        <f t="shared" si="0"/>
+        <v>31.887755102040821</v>
+      </c>
+      <c r="E7" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>OBES GRAU 1</v>
+      </c>
       <c r="F7" s="32" t="s">
         <v>83</v>
       </c>
       <c r="H7" s="33"/>
-      <c r="I7" t="s">
+      <c r="I7" s="24" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3775,14 +3831,20 @@
       <c r="C8" s="24">
         <v>1.7</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="24"/>
+      <c r="D8" s="37">
+        <f t="shared" si="0"/>
+        <v>22.491349480968861</v>
+      </c>
+      <c r="E8" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">NORMAL </v>
+      </c>
       <c r="F8" s="34" t="s">
         <v>84</v>
       </c>
       <c r="G8" s="35"/>
       <c r="H8" s="36"/>
-      <c r="I8" t="s">
+      <c r="I8" s="24" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3796,8 +3858,14 @@
       <c r="C9" s="24">
         <v>1.8</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="37">
+        <f t="shared" si="0"/>
+        <v>26.851851851851851</v>
+      </c>
+      <c r="E9" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>ACIMA DO PESO</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3810,10 +3878,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3826,7 +3894,7 @@
     <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>85</v>
       </c>
@@ -3842,13 +3910,13 @@
       <c r="E1" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>86</v>
       </c>
@@ -3862,12 +3930,15 @@
         <f>C2/B2</f>
         <v>0.5</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2" s="24" t="str">
+        <f>IF(D2&lt;=5%,$B$12,IF(D2&lt;=10%,$B$13,IF(D2&lt;20%,$B$14,IF(D2&gt;=20%,$B$15,""))))</f>
+        <v>FECHE A FABRICA</v>
+      </c>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>87</v>
       </c>
@@ -3881,12 +3952,15 @@
         <f t="shared" ref="D3:D9" si="0">C3/B3</f>
         <v>0.17499999999999999</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E3" s="24">
+        <f t="shared" ref="E3:E9" si="1">IF(D3&lt;=5%,$B$12,IF(D3&lt;=10%,$B$13,IF(D3&lt;20%,$B$14,IF(D3&gt;=20%,$B$15,""))))</f>
+        <v>30</v>
+      </c>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>88</v>
       </c>
@@ -3900,12 +3974,15 @@
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E4" s="24">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>89</v>
       </c>
@@ -3919,12 +3996,15 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E5" s="24">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>90</v>
       </c>
@@ -3938,12 +4018,15 @@
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="24">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>91</v>
       </c>
@@ -3957,12 +4040,16 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="24">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="J7" s="75"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>92</v>
       </c>
@@ -3976,12 +4063,15 @@
         <f t="shared" si="0"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="24">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>93</v>
       </c>
@@ -3995,48 +4085,51 @@
         <f t="shared" si="0"/>
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
+      <c r="E9" s="24">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="84"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B12" s="24">
         <v>10</v>
       </c>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>108</v>
       </c>
       <c r="B13" s="24">
         <v>20</v>
       </c>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>109</v>
       </c>
@@ -4044,7 +4137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>110</v>
       </c>
@@ -4058,5 +4151,6 @@
     <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Programação em Microinformática/EXERCICIO 3 - EXCEL - CAIXA_01.xlsx
+++ b/Programação em Microinformática/EXERCICIO 3 - EXCEL - CAIXA_01.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duanl\Documents\FATEC\Programação em Microinformática\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\Programação em Microinformática\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C4C1D7-5DDE-4186-9FC0-353289453427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41463619-B2C9-48E4-8EA0-5658FD7037D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan1" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -396,7 +385,7 @@
     <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00;[Red]&quot;R$&quot;\-#,##0.00"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,14 +468,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -929,7 +910,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1040,14 +1021,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1075,6 +1048,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1359,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J306"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A40" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55:J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,17 +1357,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
+      <c r="A1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3154,23 +3134,23 @@
       </c>
       <c r="C50" s="23"/>
       <c r="D50" s="42"/>
-      <c r="E50" s="73">
+      <c r="E50" s="82">
         <f t="shared" ref="E50:I50" si="6">SUM(E5:E48)</f>
         <v>6758</v>
       </c>
-      <c r="F50" s="68">
+      <c r="F50" s="77">
         <f t="shared" si="6"/>
         <v>8850</v>
       </c>
-      <c r="G50" s="69">
+      <c r="G50" s="78">
         <f t="shared" si="6"/>
         <v>4384.82</v>
       </c>
-      <c r="H50" s="70">
+      <c r="H50" s="79">
         <f t="shared" si="6"/>
         <v>1856.8</v>
       </c>
-      <c r="I50" s="71">
+      <c r="I50" s="80">
         <f t="shared" si="6"/>
         <v>1500</v>
       </c>
@@ -3218,7 +3198,7 @@
         <v>61</v>
       </c>
       <c r="C53" s="53"/>
-      <c r="D53" s="74">
+      <c r="D53" s="83">
         <f>E50</f>
         <v>6758</v>
       </c>
@@ -3234,7 +3214,7 @@
         <v>62</v>
       </c>
       <c r="C54" s="53"/>
-      <c r="D54" s="72">
+      <c r="D54" s="81">
         <f>SUM(F50:I50)</f>
         <v>16591.62</v>
       </c>
@@ -3256,10 +3236,10 @@
       </c>
       <c r="E55" s="52"/>
       <c r="F55" s="45"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="79"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="70"/>
+      <c r="J55" s="71"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56"/>
@@ -3626,7 +3606,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3635,7 +3615,7 @@
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
@@ -3658,11 +3638,11 @@
       <c r="E1" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="82"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -3674,20 +3654,14 @@
       <c r="C2" s="24">
         <v>1.6</v>
       </c>
-      <c r="D2" s="37">
-        <f>(B2/(C2*C2))</f>
-        <v>27.343749999999996</v>
-      </c>
-      <c r="E2" s="24" t="str">
-        <f>IF(D2&lt;=16,$I$2,IF(D2&lt;=20,$I$3,IF(D2&lt;=25,$I$4,IF(D2&lt;=29,$I$5,IF(D2&lt;=34,$I$6,IF(D2&lt;=39,$I$7,IF(D2&gt;=39,$I$8,"Nenhum!")))))))</f>
-        <v>ACIMA DO PESO</v>
-      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="29" t="s">
         <v>78</v>
       </c>
       <c r="G2" s="30"/>
       <c r="H2" s="31"/>
-      <c r="I2" s="24" t="s">
+      <c r="I2" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3701,19 +3675,13 @@
       <c r="C3" s="24">
         <v>1.55</v>
       </c>
-      <c r="D3" s="37">
-        <f t="shared" ref="D3:D9" si="0">(B3/(C3*C3))</f>
-        <v>36.628511966701346</v>
-      </c>
-      <c r="E3" s="24" t="str">
-        <f t="shared" ref="E3:E9" si="1">IF(D3&lt;=16,$I$2,IF(D3&lt;=20,$I$3,IF(D3&lt;=25,$I$4,IF(D3&lt;=29,$I$5,IF(D3&lt;=34,$I$6,IF(D3&lt;=39,$I$7,IF(D3&gt;=39,$I$8,"Nenhum!")))))))</f>
-        <v>OBES GRAU2</v>
-      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="32" t="s">
         <v>79</v>
       </c>
       <c r="H3" s="33"/>
-      <c r="I3" s="24" t="s">
+      <c r="I3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3727,19 +3695,13 @@
       <c r="C4" s="24">
         <v>1.5</v>
       </c>
-      <c r="D4" s="37">
-        <f t="shared" si="0"/>
-        <v>24.888888888888889</v>
-      </c>
-      <c r="E4" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">NORMAL </v>
-      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="32" t="s">
         <v>80</v>
       </c>
       <c r="H4" s="33"/>
-      <c r="I4" s="24" t="s">
+      <c r="I4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3753,19 +3715,13 @@
       <c r="C5" s="24">
         <v>1.8</v>
       </c>
-      <c r="D5" s="37">
-        <f t="shared" si="0"/>
-        <v>30.864197530864196</v>
-      </c>
-      <c r="E5" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>OBES GRAU 1</v>
-      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="32" t="s">
         <v>81</v>
       </c>
       <c r="H5" s="33"/>
-      <c r="I5" s="24" t="s">
+      <c r="I5" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3779,19 +3735,13 @@
       <c r="C6" s="24">
         <v>1.75</v>
       </c>
-      <c r="D6" s="37">
-        <f t="shared" si="0"/>
-        <v>27.755102040816325</v>
-      </c>
-      <c r="E6" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>ACIMA DO PESO</v>
-      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="32" t="s">
         <v>82</v>
       </c>
       <c r="H6" s="33"/>
-      <c r="I6" s="24" t="s">
+      <c r="I6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3805,19 +3755,13 @@
       <c r="C7" s="24">
         <v>1.68</v>
       </c>
-      <c r="D7" s="37">
-        <f t="shared" si="0"/>
-        <v>31.887755102040821</v>
-      </c>
-      <c r="E7" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>OBES GRAU 1</v>
-      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="32" t="s">
         <v>83</v>
       </c>
       <c r="H7" s="33"/>
-      <c r="I7" s="24" t="s">
+      <c r="I7" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3831,20 +3775,14 @@
       <c r="C8" s="24">
         <v>1.7</v>
       </c>
-      <c r="D8" s="37">
-        <f t="shared" si="0"/>
-        <v>22.491349480968861</v>
-      </c>
-      <c r="E8" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">NORMAL </v>
-      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="34" t="s">
         <v>84</v>
       </c>
       <c r="G8" s="35"/>
       <c r="H8" s="36"/>
-      <c r="I8" s="24" t="s">
+      <c r="I8" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3858,14 +3796,8 @@
       <c r="C9" s="24">
         <v>1.8</v>
       </c>
-      <c r="D9" s="37">
-        <f t="shared" si="0"/>
-        <v>26.851851851851851</v>
-      </c>
-      <c r="E9" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v>ACIMA DO PESO</v>
-      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3878,10 +3810,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3894,7 +3826,7 @@
     <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>85</v>
       </c>
@@ -3910,13 +3842,13 @@
       <c r="E1" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>86</v>
       </c>
@@ -3930,15 +3862,12 @@
         <f>C2/B2</f>
         <v>0.5</v>
       </c>
-      <c r="E2" s="24" t="str">
-        <f>IF(D2&lt;=5%,$B$12,IF(D2&lt;=10%,$B$13,IF(D2&lt;20%,$B$14,IF(D2&gt;=20%,$B$15,""))))</f>
-        <v>FECHE A FABRICA</v>
-      </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E2" s="24"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>87</v>
       </c>
@@ -3952,15 +3881,12 @@
         <f t="shared" ref="D3:D9" si="0">C3/B3</f>
         <v>0.17499999999999999</v>
       </c>
-      <c r="E3" s="24">
-        <f t="shared" ref="E3:E9" si="1">IF(D3&lt;=5%,$B$12,IF(D3&lt;=10%,$B$13,IF(D3&lt;20%,$B$14,IF(D3&gt;=20%,$B$15,""))))</f>
-        <v>30</v>
-      </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E3" s="24"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>88</v>
       </c>
@@ -3974,15 +3900,12 @@
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E4" s="24">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E4" s="24"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>89</v>
       </c>
@@ -3996,15 +3919,12 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E5" s="24">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5" s="24"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>90</v>
       </c>
@@ -4018,15 +3938,12 @@
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="E6" s="24">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="24"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>91</v>
       </c>
@@ -4040,16 +3957,12 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E7" s="24">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="J7" s="75"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="24"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>92</v>
       </c>
@@ -4063,15 +3976,12 @@
         <f t="shared" si="0"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="E8" s="24">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E8" s="24"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>93</v>
       </c>
@@ -4085,51 +3995,48 @@
         <f t="shared" si="0"/>
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="E9" s="24">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+      <c r="E9" s="24"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="76"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B12" s="24">
         <v>10</v>
       </c>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>108</v>
       </c>
       <c r="B13" s="24">
         <v>20</v>
       </c>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>109</v>
       </c>
@@ -4137,7 +4044,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>110</v>
       </c>
@@ -4151,6 +4058,5 @@
     <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>